--- a/Programmes/Two-step machine-learning protocol for legal citations.xlsx
+++ b/Programmes/Two-step machine-learning protocol for legal citations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmath\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmath\Extraction données décisions justice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>preceding step</t>
   </si>
@@ -53,9 +53,6 @@
     <t>annotate manually that corpus with article, code, law, other normative instrument</t>
   </si>
   <si>
-    <t>build competing models from the manually-annotated corpus of legal references</t>
-  </si>
-  <si>
     <t>download the JSON format of that corpus</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>py struc_legal_references_manual.py all_legal_references-documents.json</t>
   </si>
   <si>
-    <t>generate a corpus annotated with legal reference pairs through the best performing model</t>
-  </si>
-  <si>
     <t>build decision identifier+article+instrument triplets as obtained results</t>
   </si>
   <si>
@@ -147,6 +141,15 @@
   </si>
   <si>
     <t>12;17</t>
+  </si>
+  <si>
+    <t>download the JSON format of that annotated corpus</t>
+  </si>
+  <si>
+    <t>build competing models to break down legal citations into legal references</t>
+  </si>
+  <si>
+    <t>generate a dataset annotated with legal reference pairs through the best performing model</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
@@ -552,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <f>A4</f>
@@ -560,7 +563,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -570,17 +573,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <f>A5</f>
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -593,14 +596,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:C15" si="1">A6</f>
+        <f t="shared" ref="C7:C14" si="1">A6</f>
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -610,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <f>A7</f>
@@ -626,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <f>A8</f>
@@ -634,7 +637,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -651,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -690,37 +693,40 @@
       <c r="E12" s="3"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
-        <f>A12</f>
-        <v>9</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -730,34 +736,34 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
+        <f>A8</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4">
-        <f>A8</f>
-        <v>5</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <f>A15</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -766,7 +772,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
         <f>A16</f>
@@ -782,41 +788,37 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>A17+1</f>
+        <f t="shared" ref="A18:A19" si="2">A17+1</f>
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4">
         <f>A17</f>
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4">
         <f>A18</f>
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -826,17 +828,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4">
         <f>A19</f>
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -846,13 +848,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3"/>
       <c r="K21" s="1"/>
